--- a/Assignment 6/Code Review Checklist and Design Review Checklist.xlsx
+++ b/Assignment 6/Code Review Checklist and Design Review Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisit_pisuttipunpong\Desktop\Works\ISNE 4.2\PSP\PSP\Assignment 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisit_pisuttipunpong\Desktop\Works\ISNE 4.2\PSP\PSP\Assignment 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCC9E29-A7CD-463E-AFC4-CF4A6BC8AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2CAE6-D8D5-4232-8D35-4B96C98AF3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ABE82ACB-AE7A-44F2-8359-F05A5E71E1F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Type</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>1, 10</t>
+  </si>
+  <si>
+    <t>P6</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA8094C-3810-41F3-911F-A6D9346576FE}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +549,7 @@
     <col min="3" max="3" width="73.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -571,8 +574,11 @@
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -597,8 +603,11 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -623,8 +632,11 @@
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -648,6 +660,9 @@
       </c>
       <c r="H4" t="s">
         <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
